--- a/Italy Serie C/Italy Serie C.xlsx
+++ b/Italy Serie C/Italy Serie C.xlsx
@@ -96075,7 +96075,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>7286191</v>
+        <v>7281486</v>
       </c>
       <c r="C1038" t="s">
         <v>29</v>
@@ -96084,82 +96084,82 @@
         <v>45389.5625</v>
       </c>
       <c r="E1038" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F1038" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G1038">
+        <v>1</v>
+      </c>
+      <c r="H1038">
+        <v>1</v>
+      </c>
+      <c r="I1038">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1038">
+        <v>3.5</v>
+      </c>
+      <c r="M1038">
         <v>3</v>
       </c>
-      <c r="H1038">
-        <v>0</v>
-      </c>
-      <c r="I1038">
-        <v>2</v>
-      </c>
-      <c r="J1038">
-        <v>0</v>
-      </c>
-      <c r="K1038" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1038">
-        <v>2.375</v>
-      </c>
-      <c r="M1038">
-        <v>2.875</v>
-      </c>
       <c r="N1038">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O1038">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="P1038">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q1038">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R1038">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S1038">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T1038">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U1038">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V1038">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W1038">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X1038">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1038">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z1038">
         <v>-1</v>
       </c>
       <c r="AA1038">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB1038">
         <v>-1</v>
       </c>
       <c r="AC1038">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD1038">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1039" spans="1:30">
@@ -96167,7 +96167,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>7281486</v>
+        <v>7286191</v>
       </c>
       <c r="C1039" t="s">
         <v>29</v>
@@ -96176,82 +96176,82 @@
         <v>45389.5625</v>
       </c>
       <c r="E1039" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F1039" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G1039">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1039">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1039">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1039" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1039">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="M1039">
+        <v>2.875</v>
+      </c>
+      <c r="N1039">
+        <v>2.875</v>
+      </c>
+      <c r="O1039">
+        <v>2.3</v>
+      </c>
+      <c r="P1039">
+        <v>2.9</v>
+      </c>
+      <c r="Q1039">
         <v>3</v>
       </c>
-      <c r="N1039">
-        <v>2</v>
-      </c>
-      <c r="O1039">
-        <v>4.333</v>
-      </c>
-      <c r="P1039">
-        <v>3.2</v>
-      </c>
-      <c r="Q1039">
+      <c r="R1039">
+        <v>-0.25</v>
+      </c>
+      <c r="S1039">
+        <v>2.05</v>
+      </c>
+      <c r="T1039">
         <v>1.75</v>
       </c>
-      <c r="R1039">
-        <v>0.5</v>
-      </c>
-      <c r="S1039">
-        <v>2</v>
-      </c>
-      <c r="T1039">
+      <c r="U1039">
+        <v>2</v>
+      </c>
+      <c r="V1039">
+        <v>2</v>
+      </c>
+      <c r="W1039">
         <v>1.8</v>
       </c>
-      <c r="U1039">
-        <v>2.25</v>
-      </c>
-      <c r="V1039">
-        <v>1.95</v>
-      </c>
-      <c r="W1039">
-        <v>1.85</v>
-      </c>
       <c r="X1039">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y1039">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1039">
         <v>-1</v>
       </c>
       <c r="AA1039">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB1039">
         <v>-1</v>
       </c>
       <c r="AC1039">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD1039">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1040" spans="1:30">
